--- a/Grupos de Trabajo.xlsx
+++ b/Grupos de Trabajo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1320AAAE-94A5-4C82-940F-15C0B91FF37E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02005158-FDF9-4545-83B1-E10EF29444F6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Integrantes</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>Grupo 6</t>
+  </si>
+  <si>
+    <t>Nombre de la App</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
   </si>
 </sst>
 </file>
@@ -464,25 +470,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -490,7 +503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -498,7 +511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -506,7 +519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -514,7 +527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -522,7 +535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -530,7 +543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -538,7 +551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -546,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -554,7 +567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -562,7 +575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -570,7 +583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -578,7 +591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -586,7 +599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -594,7 +607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
